--- a/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DB242B-0D85-4B54-BCC7-37D719B9F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{25DB242B-0D85-4B54-BCC7-37D719B9F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4536FB23-2910-438B-A688-42748AF3EB1E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Test case ID</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>https://ibm-medicine-reminder.herokuapp.com/</t>
-  </si>
-  <si>
-    <t>Verify user that user can Fill the medicine details and choose Date and Time</t>
   </si>
   <si>
     <t xml:space="preserve">1.Enter the Medicine notes
@@ -386,6 +383,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -412,9 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1702,6 +1699,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,109 +2028,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="11">
         <v>44879</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -2175,7 +2176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
@@ -2198,7 +2199,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -2219,7 +2220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>42</v>
@@ -2242,7 +2243,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -2263,7 +2264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2274,15 +2275,15 @@
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -2307,7 +2308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2318,19 +2319,19 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -2348,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">

--- a/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{25DB242B-0D85-4B54-BCC7-37D719B9F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4536FB23-2910-438B-A688-42748AF3EB1E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{25DB242B-0D85-4B54-BCC7-37D719B9F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5D82F1-45AD-453C-BEBB-E895C618DCCD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
 3.Click Add reminder to get notified</t>
   </si>
   <si>
-    <t>https://medicine-reminder-ibm.netlify.app/</t>
-  </si>
-  <si>
     <t>Syed Hassan K</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Gowshalya S</t>
-  </si>
-  <si>
-    <t>https://ibm-medicine-reminder.herokuapp.com/</t>
   </si>
   <si>
     <t xml:space="preserve">1.Enter the Medicine notes
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Install npm install and Run nodemon index.js</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1699,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2030,7 +2026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,7 +2177,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -2190,16 +2186,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -2208,16 +2204,16 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
@@ -2225,25 +2221,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -2252,16 +2248,16 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
@@ -2269,22 +2265,22 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>14</v>
@@ -2296,16 +2292,16 @@
         <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
@@ -2313,25 +2309,25 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -2340,16 +2336,16 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
